--- a/PickerTransporterCooperation/Route.xlsx
+++ b/PickerTransporterCooperation/Route.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/jzl0196_auburn_edu/Documents/Doctor work/Summer2020/coop-temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tigermailauburn-my.sharepoint.com/personal/jzl0196_auburn_edu/Documents/Doctor work/Summer2020/Github/SimioExampleModels/PickerTransporterCooperation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{7B81A3A1-B64E-4BB8-9502-4134D25B3C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{31D744C4-E61A-40AD-9509-DFF410FFE3EE}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="8_{7B81A3A1-B64E-4BB8-9502-4134D25B3C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{75B3663F-57C2-43FA-84A0-4D95232F3482}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{B19EA5EA-FD9F-4F2B-9FA3-746DE5BC21AC}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="38700" windowHeight="15435" activeTab="4" xr2:uid="{B19EA5EA-FD9F-4F2B-9FA3-746DE5BC21AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Picker1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
   <si>
     <t>Route</t>
   </si>
@@ -76,6 +76,48 @@
   </si>
   <si>
     <t>MyCoopNode6</t>
+  </si>
+  <si>
+    <t>EndNode</t>
+  </si>
+  <si>
+    <t>MyPickNode12</t>
+  </si>
+  <si>
+    <t>MyPickNode23</t>
+  </si>
+  <si>
+    <t>MyCoopNode12</t>
+  </si>
+  <si>
+    <t>MyPickNode22</t>
+  </si>
+  <si>
+    <t>MyCoopNode11</t>
+  </si>
+  <si>
+    <t>MyPickNode21</t>
+  </si>
+  <si>
+    <t>MyPickNode9</t>
+  </si>
+  <si>
+    <t>MyCoopNode5</t>
+  </si>
+  <si>
+    <t>MyPickNode13</t>
+  </si>
+  <si>
+    <t>MyCoopNode7</t>
+  </si>
+  <si>
+    <t>MyPickNode19</t>
+  </si>
+  <si>
+    <t>MyCoopNode10</t>
+  </si>
+  <si>
+    <t>MyPickNode14</t>
   </si>
 </sst>
 </file>
@@ -127,7 +169,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -143,7 +185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -439,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4323CA8F-6018-488E-85C7-A22A07786E07}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,6 +538,81 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -504,10 +621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864988C7-EFB5-43E3-9692-990DDABA5E90}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,9 +663,74 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -559,10 +741,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035A04E1-8FAC-4B2F-9D58-7E5CFA51F7F6}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,6 +768,31 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -593,10 +800,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DA8E7A-7A99-4C20-816D-544F1123D97D}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,6 +832,31 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -632,10 +864,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665A0798-67F8-4979-8503-1E5A3B73F056}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,6 +895,36 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
